--- a/biology/Zoologie/Alydinae/Alydinae.xlsx
+++ b/biology/Zoologie/Alydinae/Alydinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alydinae est une sous-famille d'insectes hémiptères du sous-ordre des hétéroptères (punaises), de la famille des Alydidae. Le genre type pour la sous-famille est Alydus  Fabricius, 1803.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Alydinae a été décrite par les entomologistes français Charles Jean Baptiste Amyot et Jean Guillaume Audinet Serville en 1843, sous le nom initial d'Alydini[1].
-Synonyme
-Alydini
-Taxinomie
-Liste des genres[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Alydinae a été décrite par les entomologistes français Charles Jean Baptiste Amyot et Jean Guillaume Audinet Serville en 1843, sous le nom initial d'Alydini.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alydinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alydini</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alydinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres
 Alydus Fabricius, 1803; genre type
 Apidaurus Stål, 1870
 Burtinus Stål, 1860
